--- a/Original_Excel_Files/PJ.xlsx
+++ b/Original_Excel_Files/PJ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D9E2D6-50B0-4749-A7B4-D0CA95C42411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E22398-54CA-411F-8D56-58F95DA7EF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32310" yWindow="3525" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>PJ 7826 .I2 A233 1951 </t>
   </si>
   <si>
-    <t>Gibran</t>
-  </si>
-  <si>
-    <t>Kahlil</t>
-  </si>
-  <si>
     <t>1959 H</t>
   </si>
   <si>
@@ -55,9 +49,6 @@
     <t>PJ4833 .H6 </t>
   </si>
   <si>
-    <t>Holladay, William L. Ed.</t>
-  </si>
-  <si>
     <t>A Concise Hebrew and Aramaic Lexicon of the Old Testament</t>
   </si>
   <si>
@@ -67,27 +58,18 @@
     <t>PJ5129 .A8 I85</t>
   </si>
   <si>
-    <t>Asch, Sholem</t>
-  </si>
-  <si>
     <t>East River</t>
   </si>
   <si>
     <t>PJ5129 .S49 A25 2000</t>
   </si>
   <si>
-    <t>Singer, Isaac Bashevis</t>
-  </si>
-  <si>
     <t>More Stories From My Father's Court</t>
   </si>
   <si>
     <t>PJ7741 .G54 T42</t>
   </si>
   <si>
-    <t>Gibran, Kahlil</t>
-  </si>
-  <si>
     <t>Tears and Laughter</t>
   </si>
   <si>
@@ -100,27 +82,18 @@
     <t>PJ7826 .I2 Z595</t>
   </si>
   <si>
-    <t>Ghougassian, Joseph P.</t>
-  </si>
-  <si>
     <t>Kahlil Gibran: Wings of Thought</t>
   </si>
   <si>
     <t>PJ7826 .I2 Z94</t>
   </si>
   <si>
-    <t>Sherfan, Andrew Dib</t>
-  </si>
-  <si>
     <t>Kahil Gibran: The Nature of Love</t>
   </si>
   <si>
     <t>PJ7846 .A46 B313</t>
   </si>
   <si>
-    <t>Mahfouz, Naguib</t>
-  </si>
-  <si>
     <t>Palace Walk</t>
   </si>
   <si>
@@ -128,6 +101,15 @@
   </si>
   <si>
     <t>Midaq ally, the Thiefand the Dogs and Miramar</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>Yr.</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -230,33 +212,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,348 +577,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:I39"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:G20"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="12"/>
+    <col min="3" max="3" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A5" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1976</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1976</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1946</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="16">
+        <v>1949</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1969</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1973</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="16">
+        <v>1971</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="B15" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1976</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1976</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1946</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="13">
-        <v>2000</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="16">
-        <v>1949</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A11" s="12" t="s">
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="13">
-        <v>1969</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="B16" s="16">
+        <v>1994</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="14" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="14" t="s">
+      <c r="B17" s="16">
+        <v>1975</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="16">
-        <v>1973</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="16">
-        <v>1971</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="16">
-        <v>1994</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="16">
-        <v>1975</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="10"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A28" s="11"/>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="35" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A35" s="11"/>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A36" s="11"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I39">
-    <sortCondition ref="A1:A39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E36">
+    <sortCondition ref="A1:A36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
